--- a/Relevant Documents/PredictionResults.xlsx
+++ b/Relevant Documents/PredictionResults.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\Relevant Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction Results" sheetId="1" r:id="rId1"/>
     <sheet name="Split Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Feature Comparison" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Research</t>
   </si>
@@ -59,13 +60,28 @@
   <si>
     <t>Perc</t>
   </si>
+  <si>
+    <t>Traffic and Social Features</t>
+  </si>
+  <si>
+    <t>Traffic Features Only</t>
+  </si>
+  <si>
+    <t>Social Features Only</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>LOOCV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +211,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -203,7 +220,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -272,16 +289,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -303,11 +320,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246928896"/>
-        <c:axId val="246930576"/>
+        <c:axId val="135970736"/>
+        <c:axId val="135970176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246928896"/>
+        <c:axId val="135970736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246930576"/>
+        <c:crossAx val="135970176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -358,7 +375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246930576"/>
+        <c:axId val="135970176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246928896"/>
+        <c:crossAx val="135970736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -567,7 +584,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -580,7 +597,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
               <a:t>Dataset Classes</a:t>
             </a:r>
           </a:p>
@@ -600,7 +617,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -740,7 +757,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -816,22 +833,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24637681159420291</c:v>
+                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10144927536231885</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8985507246376812E-2</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2463768115942032E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11594202898550725</c:v>
+                  <c:v>0.11428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,7 +1086,402 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Comparison'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Comparison'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Traffic and Social Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traffic Features Only</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social Features Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Comparison'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95652199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95652199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.782609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Comparison'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOOCV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Comparison'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Traffic and Social Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traffic Features Only</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social Features Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Comparison'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.641791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.567164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352509200"/>
+        <c:axId val="352510880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352509200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352510880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352510880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352509200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1202,6 +1614,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2194,6 +2646,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2260,10 +3215,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -2283,6 +3238,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2554,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +3559,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -2589,12 +3579,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -2603,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2612,21 +3602,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2635,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +3635,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:G5" si="0">SUM(C3:C4)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -2665,36 +3655,42 @@
       </c>
       <c r="H5">
         <f>SUM(B5:G5)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
         <f>B5/$H$5</f>
-        <v>0.43478260869565216</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:G7" si="1">C5/$H$5</f>
-        <v>0.24637681159420291</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.10144927536231885</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>2.8985507246376812E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>7.2463768115942032E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0.11594202898550725</v>
+        <v>0.11428571428571428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>SUM(B3:G3)/SUM(B5:G5)</f>
+        <v>0.95714285714285718</v>
       </c>
     </row>
   </sheetData>
@@ -2714,4 +3710,66 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.95652199999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.95652199999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.641791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.782609</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.567164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Relevant Documents/PredictionResults.xlsx
+++ b/Relevant Documents/PredictionResults.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction Results" sheetId="1" r:id="rId1"/>
     <sheet name="Split Analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Feature Comparison" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,53 +180,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:f>'Prediction Results'!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>GradStudent</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Research</c:v>
+                  <c:v>Operations</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Operations</c:v>
+                  <c:v>Outreach</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Outreach</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>PM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Director</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prediction Results'!$B$3:$G$3</c:f>
+              <c:f>'Prediction Results'!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -258,52 +246,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:f>'Prediction Results'!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>GradStudent</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Research</c:v>
+                  <c:v>Operations</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Operations</c:v>
+                  <c:v>Outreach</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Outreach</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>PM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Director</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prediction Results'!$B$4:$G$4</c:f>
+              <c:f>'Prediction Results'!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -320,11 +296,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="135970736"/>
-        <c:axId val="135970176"/>
+        <c:axId val="255900048"/>
+        <c:axId val="408040928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135970736"/>
+        <c:axId val="255900048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135970176"/>
+        <c:crossAx val="408040928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -375,7 +351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135970176"/>
+        <c:axId val="408040928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,7 +458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135970736"/>
+        <c:crossAx val="255900048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -717,7 +693,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -743,6 +719,27 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9982668200630516E-3"/>
+                  <c:y val="7.8084831513384381E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -757,7 +754,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -806,10 +803,10 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>GradStudent</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Research</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Operations</c:v>
@@ -821,7 +818,7 @@
                   <c:v>PM</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Director</c:v>
+                  <c:v>Research</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,10 +830,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.11428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.42857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -848,203 +845,7 @@
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11428571428571428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Prediction Results'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GradStudent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>GradStudent</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Research</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Operations</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Outreach</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>PM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Director</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Prediction Results'!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +887,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1290,11 +1091,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352509200"/>
-        <c:axId val="352510880"/>
+        <c:axId val="404073584"/>
+        <c:axId val="404074144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352509200"/>
+        <c:axId val="404073584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352510880"/>
+        <c:crossAx val="404074144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1345,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352510880"/>
+        <c:axId val="404074144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1453,7 +1254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352509200"/>
+        <c:crossAx val="404073584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3186,15 +2987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3221,10 +3022,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3546,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,10 +3362,10 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -3576,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3584,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>29</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -3599,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3607,10 +3408,10 @@
         <v>7</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3622,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3631,14 +3432,14 @@
       </c>
       <c r="B5">
         <f>SUM(B3:B4)</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C3:C4)</f>
         <v>30</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:G5" si="0">SUM(C3:C4)</f>
-        <v>18</v>
-      </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
         <v>7</v>
       </c>
       <c r="E5">
@@ -3650,8 +3451,8 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(G3:G4)</f>
+        <v>18</v>
       </c>
       <c r="H5">
         <f>SUM(B5:G5)</f>
@@ -3664,33 +3465,34 @@
       </c>
       <c r="B7" s="1">
         <f>B5/$H$5</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C5/$H$5</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:G7" si="1">C5/$H$5</f>
+      <c r="D7" s="1">
+        <f>D5/$H$5</f>
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
+        <f>E5/$H$5</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F5/$H$5</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f>G5/$H$5</f>
         <v>0.25714285714285712</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11428571428571428</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8">
-        <f>SUM(B3:G3)/SUM(B5:G5)</f>
-        <v>0.95714285714285718</v>
+        <f>SUM(C3:F3)/SUM(C5:F5)</f>
+        <v>0.97727272727272729</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
